--- a/downloaded_files/CCES280_Lecture-35184.xlsx
+++ b/downloaded_files/CCES280_Lecture-35184.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -217,6 +217,12 @@
   </x:si>
   <x:si>
     <x:t>amr sabry abdullatif ibrahim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4240033</x:t>
+  </x:si>
+  <x:si>
+    <x:t>فاطمة اسماعيل احمد محمد</x:t>
   </x:si>
   <x:si>
     <x:t>1230082</x:t>
@@ -494,7 +500,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E40" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -794,7 +800,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T40"/>
+  <x:dimension ref="A1:T41"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1551,11 +1557,9 @@
       <x:c r="C23" s="2" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
+      <x:c r="D23" s="2" t="s"/>
       <x:c r="E23" s="3">
-        <x:v>45907.4694913194</x:v>
+        <x:v>45928.9229697917</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1578,16 +1582,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="C24" s="2" t="s">
+      <x:c r="D24" s="2" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>72</x:v>
-      </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6951017361</x:v>
+        <x:v>45907.4694913194</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1610,16 +1614,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="C25" s="2" t="s">
+      <x:c r="D25" s="2" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6649868866</x:v>
+        <x:v>45907.6951017361</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1642,16 +1646,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="C26" s="2" t="s">
+      <x:c r="D26" s="2" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>78</x:v>
-      </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6643837963</x:v>
+        <x:v>45907.6649868866</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1674,16 +1678,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="C27" s="2" t="s">
+      <x:c r="D27" s="2" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6667892708</x:v>
+        <x:v>45906.6643837963</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1706,16 +1710,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="C28" s="2" t="s">
+      <x:c r="D28" s="2" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>84</x:v>
-      </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6673248495</x:v>
+        <x:v>45907.6667892708</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1738,16 +1742,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="C29" s="2" t="s">
+      <x:c r="D29" s="2" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6650548611</x:v>
+        <x:v>45907.6673248495</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1770,16 +1774,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="C30" s="2" t="s">
+      <x:c r="D30" s="2" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6650592245</x:v>
+        <x:v>45907.6650548611</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1802,16 +1806,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="C31" s="2" t="s">
+      <x:c r="D31" s="2" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6655427431</x:v>
+        <x:v>45907.6650592245</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1834,16 +1838,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
         <x:v>94</x:v>
       </x:c>
-      <x:c r="C32" s="2" t="s">
+      <x:c r="D32" s="2" t="s">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.665527662</x:v>
+        <x:v>45907.6655427431</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1866,16 +1870,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
         <x:v>97</x:v>
       </x:c>
-      <x:c r="C33" s="2" t="s">
+      <x:c r="D33" s="2" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="D33" s="2" t="s">
-        <x:v>99</x:v>
-      </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6658299769</x:v>
+        <x:v>45907.665527662</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1898,16 +1902,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="C34" s="2" t="s">
+      <x:c r="D34" s="2" t="s">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6658175579</x:v>
+        <x:v>45907.6658299769</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1930,16 +1934,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="C35" s="2" t="s">
+      <x:c r="D35" s="2" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.666621412</x:v>
+        <x:v>45907.6658175579</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1962,16 +1966,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
         <x:v>106</x:v>
       </x:c>
-      <x:c r="C36" s="2" t="s">
+      <x:c r="D36" s="2" t="s">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>108</x:v>
-      </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6660113079</x:v>
+        <x:v>45907.666621412</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1994,16 +1998,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
         <x:v>109</x:v>
       </x:c>
-      <x:c r="C37" s="2" t="s">
+      <x:c r="D37" s="2" t="s">
         <x:v>110</x:v>
       </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>111</x:v>
-      </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6646291667</x:v>
+        <x:v>45907.6660113079</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2026,16 +2030,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="C38" s="2" t="s">
+      <x:c r="D38" s="2" t="s">
         <x:v>113</x:v>
       </x:c>
-      <x:c r="D38" s="2" t="s">
-        <x:v>114</x:v>
-      </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.6644871875</x:v>
+        <x:v>45907.6646291667</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2058,16 +2062,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B39" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
         <x:v>115</x:v>
       </x:c>
-      <x:c r="C39" s="2" t="s">
+      <x:c r="D39" s="2" t="s">
         <x:v>116</x:v>
       </x:c>
-      <x:c r="D39" s="2" t="s">
-        <x:v>117</x:v>
-      </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6681175926</x:v>
+        <x:v>45906.6644871875</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2090,16 +2094,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="C40" s="2" t="s">
         <x:v>118</x:v>
       </x:c>
-      <x:c r="C40" s="2" t="s">
+      <x:c r="D40" s="2" t="s">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="D40" s="2" t="s">
-        <x:v>120</x:v>
-      </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.4483164005</x:v>
+        <x:v>45907.6681175926</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2116,6 +2120,38 @@
       <x:c r="R40" s="2" t="s"/>
       <x:c r="S40" s="2" t="s"/>
       <x:c r="T40" s="2" t="s"/>
+    </x:row>
+    <x:row r="41" spans="1:20">
+      <x:c r="A41" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B41" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="D41" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="E41" s="3">
+        <x:v>45907.4483164005</x:v>
+      </x:c>
+      <x:c r="F41" s="2" t="s"/>
+      <x:c r="G41" s="2" t="s"/>
+      <x:c r="H41" s="2" t="s"/>
+      <x:c r="I41" s="2" t="s"/>
+      <x:c r="J41" s="2" t="s"/>
+      <x:c r="K41" s="2" t="s"/>
+      <x:c r="L41" s="2" t="s"/>
+      <x:c r="M41" s="2" t="s"/>
+      <x:c r="N41" s="2" t="s"/>
+      <x:c r="O41" s="2" t="s"/>
+      <x:c r="P41" s="2" t="s"/>
+      <x:c r="Q41" s="2" t="s"/>
+      <x:c r="R41" s="2" t="s"/>
+      <x:c r="S41" s="2" t="s"/>
+      <x:c r="T41" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CCES280_Lecture-35184.xlsx
+++ b/downloaded_files/CCES280_Lecture-35184.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -190,15 +190,6 @@
   </x:si>
   <x:si>
     <x:t>Omar Emad Ali Omar Yahia Ali Omar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230213</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر محمد ساطع ابراهيم سعيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>omar muhammad satea ibrahim saeed</x:t>
   </x:si>
   <x:si>
     <x:t>1230217</x:t>
@@ -500,7 +491,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E40" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -800,7 +791,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T41"/>
+  <x:dimension ref="A1:T40"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1465,7 +1456,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4531964468</x:v>
+        <x:v>45918.4975709838</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1497,7 +1488,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45918.4975709838</x:v>
+        <x:v>45907.667399537</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1525,11 +1516,9 @@
       <x:c r="C22" s="2" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>66</x:v>
-      </x:c>
+      <x:c r="D22" s="2" t="s"/>
       <x:c r="E22" s="3">
-        <x:v>45907.667399537</x:v>
+        <x:v>45928.9229697917</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1552,14 +1541,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="C23" s="2" t="s">
+      <x:c r="D23" s="2" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="s"/>
       <x:c r="E23" s="3">
-        <x:v>45928.9229697917</x:v>
+        <x:v>45907.4694913194</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1591,7 +1582,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4694913194</x:v>
+        <x:v>45907.6951017361</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1623,7 +1614,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6951017361</x:v>
+        <x:v>45907.6649868866</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1655,7 +1646,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6649868866</x:v>
+        <x:v>45906.6643837963</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1687,7 +1678,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6643837963</x:v>
+        <x:v>45907.6667892708</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1719,7 +1710,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6667892708</x:v>
+        <x:v>45907.6673248495</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1751,7 +1742,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6673248495</x:v>
+        <x:v>45907.6650548611</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1783,7 +1774,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6650548611</x:v>
+        <x:v>45907.6650592245</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1815,7 +1806,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6650592245</x:v>
+        <x:v>45907.6655427431</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1847,7 +1838,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6655427431</x:v>
+        <x:v>45907.665527662</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1879,7 +1870,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.665527662</x:v>
+        <x:v>45907.6658299769</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1911,7 +1902,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6658299769</x:v>
+        <x:v>45907.6658175579</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1943,7 +1934,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6658175579</x:v>
+        <x:v>45907.666621412</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1975,7 +1966,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.666621412</x:v>
+        <x:v>45907.6660113079</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2007,7 +1998,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6660113079</x:v>
+        <x:v>45907.6646291667</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2039,7 +2030,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6646291667</x:v>
+        <x:v>45906.6644871875</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2071,7 +2062,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.6644871875</x:v>
+        <x:v>45907.6681175926</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2103,7 +2094,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6681175926</x:v>
+        <x:v>45907.4483164005</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2120,38 +2111,6 @@
       <x:c r="R40" s="2" t="s"/>
       <x:c r="S40" s="2" t="s"/>
       <x:c r="T40" s="2" t="s"/>
-    </x:row>
-    <x:row r="41" spans="1:20">
-      <x:c r="A41" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B41" s="2" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="C41" s="2" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="D41" s="2" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="E41" s="3">
-        <x:v>45907.4483164005</x:v>
-      </x:c>
-      <x:c r="F41" s="2" t="s"/>
-      <x:c r="G41" s="2" t="s"/>
-      <x:c r="H41" s="2" t="s"/>
-      <x:c r="I41" s="2" t="s"/>
-      <x:c r="J41" s="2" t="s"/>
-      <x:c r="K41" s="2" t="s"/>
-      <x:c r="L41" s="2" t="s"/>
-      <x:c r="M41" s="2" t="s"/>
-      <x:c r="N41" s="2" t="s"/>
-      <x:c r="O41" s="2" t="s"/>
-      <x:c r="P41" s="2" t="s"/>
-      <x:c r="Q41" s="2" t="s"/>
-      <x:c r="R41" s="2" t="s"/>
-      <x:c r="S41" s="2" t="s"/>
-      <x:c r="T41" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CCES280_Lecture-35184.xlsx
+++ b/downloaded_files/CCES280_Lecture-35184.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -322,6 +322,15 @@
   </x:si>
   <x:si>
     <x:t>Moaaz Alaa Abdelghany Ibrahim Anwar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210319</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نور نادر محمد الحسينى سيد خليل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nour Nader Mohamed Elhusseiny Sayed Khalil</x:t>
   </x:si>
   <x:si>
     <x:t>1240164</x:t>
@@ -491,7 +500,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E40" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -791,7 +800,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T40"/>
+  <x:dimension ref="A1:T41"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1934,7 +1943,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.666621412</x:v>
+        <x:v>45931.5235747338</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1966,7 +1975,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6660113079</x:v>
+        <x:v>45907.666621412</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1998,7 +2007,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6646291667</x:v>
+        <x:v>45907.6660113079</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2030,7 +2039,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.6644871875</x:v>
+        <x:v>45907.6646291667</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2062,7 +2071,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6681175926</x:v>
+        <x:v>45906.6644871875</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2094,7 +2103,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.4483164005</x:v>
+        <x:v>45907.6681175926</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2111,6 +2120,38 @@
       <x:c r="R40" s="2" t="s"/>
       <x:c r="S40" s="2" t="s"/>
       <x:c r="T40" s="2" t="s"/>
+    </x:row>
+    <x:row r="41" spans="1:20">
+      <x:c r="A41" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B41" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="D41" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="E41" s="3">
+        <x:v>45907.4483164005</x:v>
+      </x:c>
+      <x:c r="F41" s="2" t="s"/>
+      <x:c r="G41" s="2" t="s"/>
+      <x:c r="H41" s="2" t="s"/>
+      <x:c r="I41" s="2" t="s"/>
+      <x:c r="J41" s="2" t="s"/>
+      <x:c r="K41" s="2" t="s"/>
+      <x:c r="L41" s="2" t="s"/>
+      <x:c r="M41" s="2" t="s"/>
+      <x:c r="N41" s="2" t="s"/>
+      <x:c r="O41" s="2" t="s"/>
+      <x:c r="P41" s="2" t="s"/>
+      <x:c r="Q41" s="2" t="s"/>
+      <x:c r="R41" s="2" t="s"/>
+      <x:c r="S41" s="2" t="s"/>
+      <x:c r="T41" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CCES280_Lecture-35184.xlsx
+++ b/downloaded_files/CCES280_Lecture-35184.xlsx
@@ -48,7 +48,7 @@
     <x:t>احمد سامح صلاح مصيلحى</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Sameh Salah</x:t>
+    <x:t>Ahmed Sameh Salah Moselhi</x:t>
   </x:si>
   <x:si>
     <x:t>1210346</x:t>
@@ -249,7 +249,7 @@
     <x:t>محمد اشرف محمد كرم الله</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohamed Ashraf Mohamed</x:t>
+    <x:t>Mohamed Ashraf Mohamed Karam Allah</x:t>
   </x:si>
   <x:si>
     <x:t>1240138</x:t>

--- a/downloaded_files/CCES280_Lecture-35184.xlsx
+++ b/downloaded_files/CCES280_Lecture-35184.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -117,7 +117,10 @@
     <x:t>1240195</x:t>
   </x:si>
   <x:si>
-    <x:t>زياد محمود حشمت سيف النصر</x:t>
+    <x:t>زياد محمود حشمت سيف النصر عبد الرحيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zeyad Mahmoud Hishmat Seifelnasr Abdelraheem</x:t>
   </x:si>
   <x:si>
     <x:t>1240320</x:t>
@@ -1175,7 +1178,9 @@
       <x:c r="C11" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="D11" s="2" t="s"/>
+      <x:c r="D11" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
       <x:c r="E11" s="3">
         <x:v>45907.6684441319</x:v>
       </x:c>
@@ -1200,13 +1205,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
         <x:v>45914.3788697917</x:v>
@@ -1232,13 +1237,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
         <x:v>45907.6648109143</x:v>
@@ -1264,13 +1269,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D14" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
         <x:v>45907.6670371181</x:v>
@@ -1296,13 +1301,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D15" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
         <x:v>45907.6671356829</x:v>
@@ -1328,13 +1333,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D16" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
         <x:v>45907.6666133449</x:v>
@@ -1360,13 +1365,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D17" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
         <x:v>45914.3921311343</x:v>
@@ -1392,13 +1397,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D18" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
         <x:v>45907.6646372685</x:v>
@@ -1424,13 +1429,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D19" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
         <x:v>45907.6662529745</x:v>
@@ -1456,13 +1461,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D20" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
         <x:v>45918.4975709838</x:v>
@@ -1488,13 +1493,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D21" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
         <x:v>45907.667399537</x:v>
@@ -1520,10 +1525,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D22" s="2" t="s"/>
       <x:c r="E22" s="3">
@@ -1550,13 +1555,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D23" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
         <x:v>45907.4694913194</x:v>
@@ -1582,13 +1587,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D24" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
         <x:v>45907.6951017361</x:v>
@@ -1614,13 +1619,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D25" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
         <x:v>45907.6649868866</x:v>
@@ -1646,13 +1651,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D26" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
         <x:v>45906.6643837963</x:v>
@@ -1678,13 +1683,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D27" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
         <x:v>45907.6667892708</x:v>
@@ -1710,13 +1715,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D28" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
         <x:v>45907.6673248495</x:v>
@@ -1742,13 +1747,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D29" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
         <x:v>45907.6650548611</x:v>
@@ -1774,13 +1779,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C30" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D30" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
         <x:v>45907.6650592245</x:v>
@@ -1806,13 +1811,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C31" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D31" s="2" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
         <x:v>45907.6655427431</x:v>
@@ -1838,13 +1843,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C32" s="2" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D32" s="2" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
         <x:v>45907.665527662</x:v>
@@ -1870,13 +1875,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C33" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D33" s="2" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
         <x:v>45907.6658299769</x:v>
@@ -1902,13 +1907,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C34" s="2" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D34" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
         <x:v>45907.6658175579</x:v>
@@ -1934,13 +1939,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C35" s="2" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D35" s="2" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
         <x:v>45931.5235747338</x:v>
@@ -1966,13 +1971,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C36" s="2" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="D36" s="2" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
         <x:v>45907.666621412</x:v>
@@ -1998,13 +2003,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="C37" s="2" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D37" s="2" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
         <x:v>45907.6660113079</x:v>
@@ -2030,13 +2035,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C38" s="2" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D38" s="2" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
         <x:v>45907.6646291667</x:v>
@@ -2062,13 +2067,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B39" s="2" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C39" s="2" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D39" s="2" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
         <x:v>45906.6644871875</x:v>
@@ -2094,13 +2099,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C40" s="2" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D40" s="2" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
         <x:v>45907.6681175926</x:v>
@@ -2126,13 +2131,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B41" s="2" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C41" s="2" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D41" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
         <x:v>45907.4483164005</x:v>
